--- a/MyBudgetTemplate.xlsx
+++ b/MyBudgetTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a81f2feb7c8e062/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="713" documentId="8_{6D5D6BAE-B148-4818-9C26-4C69CEB77ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D576A840-5170-4503-B20F-5D09BE3BC3FB}"/>
+  <xr:revisionPtr revIDLastSave="866" documentId="8_{6D5D6BAE-B148-4818-9C26-4C69CEB77ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A9BB71-B6B7-4B48-BBA4-464D361B13A4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="13" xr2:uid="{645D2AD4-9CFA-4C71-9DAA-1D9E8E3A6B2D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{645D2AD4-9CFA-4C71-9DAA-1D9E8E3A6B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -233,16 +233,16 @@
     <t>Balance</t>
   </si>
   <si>
-    <t>1. Enter an item description or name.</t>
+    <t>1. Enter the transaction date (optional, but recommended*).</t>
   </si>
   <si>
     <t>Adjustment</t>
   </si>
   <si>
-    <t>2. Enter the debit or credit amount.</t>
+    <t>2. Enter an item description or name.</t>
   </si>
   <si>
-    <t>3. Enter the transaction date (optional, but recommended*).</t>
+    <t>3. Enter the debit or credit amount.</t>
   </si>
   <si>
     <t>4. If re-ordering or re-sorting (*by date ascending):</t>
@@ -377,7 +377,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,9 +906,17 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Budget Forecast</a:t>
             </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1075,7 +1083,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C549-4F06-8D45-F4C6CB6C700D}"/>
+              <c16:uniqueId val="{00000000-DE3F-4431-BEC9-683BE0103B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1206,7 +1214,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C549-4F06-8D45-F4C6CB6C700D}"/>
+              <c16:uniqueId val="{00000001-DE3F-4431-BEC9-683BE0103B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1220,8 +1228,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1620436687"/>
-        <c:axId val="1972535647"/>
+        <c:axId val="1353939183"/>
+        <c:axId val="1423477903"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1344,7 +1352,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C549-4F06-8D45-F4C6CB6C700D}"/>
+              <c16:uniqueId val="{00000002-DE3F-4431-BEC9-683BE0103B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1358,11 +1366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1620436687"/>
-        <c:axId val="1972535647"/>
+        <c:axId val="1353939183"/>
+        <c:axId val="1423477903"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1620436687"/>
+        <c:axId val="1353939183"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1405,15 +1413,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1972535647"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1423477903"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1972535647"/>
+        <c:axId val="1423477903"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1463,8 +1470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1620436687"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="1353939183"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2111,23 +2117,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>92075</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58BF2B78-6C9C-7AB7-206F-8A33C2625344}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BC4184-383A-3DF8-8125-3431E64891C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2146,6 +2152,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2448,22 +2458,22 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="13.5703125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.7109375" style="6"/>
-    <col min="11" max="11" width="35.5703125" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="7" customWidth="1"/>
+    <col min="3" max="4" width="13.54296875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7265625" style="6"/>
+    <col min="11" max="11" width="35.54296875" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2480,7 +2490,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2496,15 +2506,15 @@
       <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -2515,15 +2525,15 @@
         <f>IF(B3= "", "", IFERROR(E2 * 1, 0) + SUM(C3:D3))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -2540,7 +2550,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -2557,7 +2567,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="14.45" customHeight="1">
+    <row r="6" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2573,7 +2583,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="1:11" ht="14.45" customHeight="1">
+    <row r="7" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2589,7 +2599,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:11" ht="14.45" customHeight="1">
+    <row r="8" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2605,7 +2615,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2622,7 +2632,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="14.45" customHeight="1">
+    <row r="10" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2638,7 +2648,7 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:11" ht="14.45" customHeight="1">
+    <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2654,7 +2664,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:11" ht="14.45" customHeight="1">
+    <row r="12" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2670,7 +2680,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1">
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2680,7 +2690,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2697,7 +2707,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2712,7 +2722,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="29"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2727,7 +2737,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2742,7 +2752,7 @@
       <c r="J17" s="28"/>
       <c r="K17" s="29"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2757,7 +2767,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="29"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2772,7 +2782,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2787,7 +2797,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="29"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2802,7 +2812,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2817,7 +2827,7 @@
       <c r="J22" s="28"/>
       <c r="K22" s="29"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2832,7 +2842,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="29"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2847,7 +2857,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="29"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -2862,7 +2872,7 @@
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="27" spans="1:11" ht="14.45" customHeight="1">
+    <row r="27" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23" t="s">
         <v>19</v>
       </c>
@@ -2877,7 +2887,7 @@
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -2890,7 +2900,7 @@
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -2903,7 +2913,7 @@
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -2916,7 +2926,7 @@
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -2929,7 +2939,7 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -2942,7 +2952,7 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -2955,7 +2965,7 @@
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -2973,9 +2983,9 @@
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:K34"/>
     <mergeCell ref="G14:K25"/>
-    <mergeCell ref="G2:K2"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="G4:K4"/>
+    <mergeCell ref="G2:K2"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:K7"/>
@@ -2985,7 +2995,7 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H11:K11"/>
   </mergeCells>
-  <conditionalFormatting sqref="D35:D1048576 D26 E1:E25">
+  <conditionalFormatting sqref="E1:E25 D26 D35:D1048576">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -3004,15 +3014,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3050,7 +3060,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -3062,7 +3072,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>45170</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>45171</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>45172</v>
       </c>
@@ -3110,7 +3120,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>45173</v>
       </c>
@@ -3126,7 +3136,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45184</v>
       </c>
@@ -3142,7 +3152,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45185</v>
       </c>
@@ -3158,7 +3168,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45186</v>
       </c>
@@ -3174,7 +3184,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45187</v>
       </c>
@@ -3190,7 +3200,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45199</v>
       </c>
@@ -3206,7 +3216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -3216,7 +3226,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -3226,7 +3236,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -3236,7 +3246,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -3246,7 +3256,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -3256,7 +3266,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -3266,7 +3276,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -3276,7 +3286,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -3286,7 +3296,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -3296,7 +3306,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -3306,7 +3316,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -3316,7 +3326,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -3326,7 +3336,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -3358,15 +3368,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3386,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -3416,7 +3426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>45200</v>
       </c>
@@ -3432,7 +3442,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>45201</v>
       </c>
@@ -3448,7 +3458,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>45202</v>
       </c>
@@ -3464,7 +3474,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>45203</v>
       </c>
@@ -3480,7 +3490,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45214</v>
       </c>
@@ -3496,7 +3506,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45215</v>
       </c>
@@ -3512,7 +3522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45216</v>
       </c>
@@ -3528,7 +3538,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45217</v>
       </c>
@@ -3544,7 +3554,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45230</v>
       </c>
@@ -3560,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -3570,7 +3580,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -3580,7 +3590,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -3590,7 +3600,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -3600,7 +3610,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -3610,7 +3620,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -3620,7 +3630,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -3630,7 +3640,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -3640,7 +3650,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -3650,7 +3660,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -3660,7 +3670,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -3670,7 +3680,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -3680,7 +3690,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -3712,15 +3722,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3738,7 +3748,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3756,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -3768,7 +3778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>45231</v>
       </c>
@@ -3784,7 +3794,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>45232</v>
       </c>
@@ -3800,7 +3810,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>45233</v>
       </c>
@@ -3816,7 +3826,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>45234</v>
       </c>
@@ -3832,7 +3842,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45245</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45246</v>
       </c>
@@ -3864,7 +3874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45247</v>
       </c>
@@ -3880,7 +3890,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45248</v>
       </c>
@@ -3896,7 +3906,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45260</v>
       </c>
@@ -3912,7 +3922,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -3922,7 +3932,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -3932,7 +3942,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -3942,7 +3952,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -3952,7 +3962,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -3962,7 +3972,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -3972,7 +3982,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -3982,7 +3992,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -3992,7 +4002,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -4002,7 +4012,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -4012,7 +4022,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -4022,7 +4032,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -4032,7 +4042,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -4064,15 +4074,15 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4092,7 +4102,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4110,7 +4120,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -4122,7 +4132,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>45261</v>
       </c>
@@ -4138,7 +4148,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>45262</v>
       </c>
@@ -4154,7 +4164,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>45263</v>
       </c>
@@ -4170,7 +4180,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>45264</v>
       </c>
@@ -4186,7 +4196,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45275</v>
       </c>
@@ -4202,7 +4212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45276</v>
       </c>
@@ -4218,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45277</v>
       </c>
@@ -4234,7 +4244,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45278</v>
       </c>
@@ -4250,7 +4260,7 @@
         <v>-1200</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45291</v>
       </c>
@@ -4266,7 +4276,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>45291</v>
       </c>
@@ -4282,7 +4292,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -4292,7 +4302,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -4302,7 +4312,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -4312,7 +4322,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -4322,7 +4332,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -4332,7 +4342,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -4342,7 +4352,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -4352,7 +4362,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -4362,7 +4372,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -4372,7 +4382,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -4382,7 +4392,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -4392,7 +4402,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -4422,13 +4432,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
@@ -4442,7 +4453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
@@ -4459,7 +4470,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
@@ -4476,7 +4487,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
@@ -4493,7 +4504,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
@@ -4510,7 +4521,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
@@ -4527,7 +4538,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
@@ -4544,7 +4555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
@@ -4561,7 +4572,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>36</v>
       </c>
@@ -4578,7 +4589,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
@@ -4595,7 +4606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
@@ -4612,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
@@ -4629,7 +4640,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>40</v>
       </c>
@@ -4647,6 +4658,22 @@
       </c>
     </row>
   </sheetData>
+  <dataConsolidate topLabels="1" link="1">
+    <dataRefs count="12">
+      <dataRef ref="B2:D25" sheet="Apr"/>
+      <dataRef ref="B2:D25" sheet="Aug"/>
+      <dataRef ref="B2:D25" sheet="Dec"/>
+      <dataRef ref="B2:D25" sheet="Feb"/>
+      <dataRef ref="B2:D25" sheet="Jan"/>
+      <dataRef ref="B2:D25" sheet="Jul"/>
+      <dataRef ref="B2:D25" sheet="Jun"/>
+      <dataRef ref="B2:D25" sheet="Mar"/>
+      <dataRef ref="B2:D25" sheet="May"/>
+      <dataRef ref="B2:D25" sheet="Nov"/>
+      <dataRef ref="B2:D25" sheet="Oct"/>
+      <dataRef ref="B2:D25" sheet="Sep"/>
+    </dataRefs>
+  </dataConsolidate>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4662,15 +4689,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4688,7 +4715,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4706,7 +4733,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -4718,7 +4745,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44927</v>
       </c>
@@ -4734,7 +4761,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44928</v>
       </c>
@@ -4750,7 +4777,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44929</v>
       </c>
@@ -4766,7 +4793,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44930</v>
       </c>
@@ -4782,7 +4809,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44941</v>
       </c>
@@ -4798,7 +4825,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44942</v>
       </c>
@@ -4814,7 +4841,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44943</v>
       </c>
@@ -4830,7 +4857,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44944</v>
       </c>
@@ -4846,7 +4873,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44957</v>
       </c>
@@ -4862,7 +4889,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -4872,7 +4899,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -4882,7 +4909,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -4892,7 +4919,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -4902,7 +4929,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -4912,7 +4939,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -4922,7 +4949,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -4932,7 +4959,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -4942,7 +4969,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -4952,7 +4979,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -4962,7 +4989,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -4972,7 +4999,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -4982,7 +5009,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -5015,15 +5042,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5043,7 +5070,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5061,7 +5088,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -5073,7 +5100,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44958</v>
       </c>
@@ -5089,7 +5116,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44959</v>
       </c>
@@ -5105,7 +5132,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44960</v>
       </c>
@@ -5121,7 +5148,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44961</v>
       </c>
@@ -5137,7 +5164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>44972</v>
       </c>
@@ -5153,7 +5180,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>44973</v>
       </c>
@@ -5169,7 +5196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>44974</v>
       </c>
@@ -5185,7 +5212,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>44975</v>
       </c>
@@ -5201,7 +5228,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>44985</v>
       </c>
@@ -5217,7 +5244,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -5227,7 +5254,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -5237,7 +5264,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -5247,7 +5274,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -5257,7 +5284,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -5267,7 +5294,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -5277,7 +5304,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -5287,7 +5314,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -5297,7 +5324,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -5307,7 +5334,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -5317,7 +5344,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -5327,7 +5354,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -5337,7 +5364,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -5369,15 +5396,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5397,7 +5424,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5415,7 +5442,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -5427,7 +5454,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>44986</v>
       </c>
@@ -5443,7 +5470,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>44987</v>
       </c>
@@ -5459,7 +5486,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>44988</v>
       </c>
@@ -5475,7 +5502,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>44989</v>
       </c>
@@ -5491,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45000</v>
       </c>
@@ -5507,7 +5534,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45001</v>
       </c>
@@ -5523,7 +5550,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45002</v>
       </c>
@@ -5539,7 +5566,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45003</v>
       </c>
@@ -5555,7 +5582,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45016</v>
       </c>
@@ -5571,7 +5598,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -5581,7 +5608,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -5591,7 +5618,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -5601,7 +5628,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -5611,7 +5638,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -5621,7 +5648,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -5631,7 +5658,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -5641,7 +5668,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -5651,7 +5678,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -5661,7 +5688,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -5671,7 +5698,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -5681,7 +5708,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -5691,7 +5718,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -5723,15 +5750,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5751,7 +5778,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5769,7 +5796,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -5781,7 +5808,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>45017</v>
       </c>
@@ -5797,7 +5824,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>45018</v>
       </c>
@@ -5813,7 +5840,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>45019</v>
       </c>
@@ -5829,7 +5856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>45020</v>
       </c>
@@ -5845,7 +5872,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45031</v>
       </c>
@@ -5861,7 +5888,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45032</v>
       </c>
@@ -5877,7 +5904,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45033</v>
       </c>
@@ -5893,7 +5920,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45034</v>
       </c>
@@ -5909,7 +5936,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45046</v>
       </c>
@@ -5925,7 +5952,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -5935,7 +5962,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -5945,7 +5972,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -5955,7 +5982,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -5965,7 +5992,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -5975,7 +6002,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -5985,7 +6012,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -5995,7 +6022,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -6005,7 +6032,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -6015,7 +6042,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -6025,7 +6052,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -6035,7 +6062,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -6045,7 +6072,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -6077,15 +6104,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -6105,7 +6132,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6123,7 +6150,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -6135,7 +6162,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>45047</v>
       </c>
@@ -6151,7 +6178,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>45048</v>
       </c>
@@ -6167,7 +6194,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>45049</v>
       </c>
@@ -6183,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>45050</v>
       </c>
@@ -6199,7 +6226,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45061</v>
       </c>
@@ -6215,7 +6242,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45062</v>
       </c>
@@ -6231,7 +6258,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45063</v>
       </c>
@@ -6247,7 +6274,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45064</v>
       </c>
@@ -6263,7 +6290,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45077</v>
       </c>
@@ -6279,7 +6306,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -6289,7 +6316,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -6299,7 +6326,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -6309,7 +6336,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -6319,7 +6346,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -6329,7 +6356,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -6339,7 +6366,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -6349,7 +6376,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -6359,7 +6386,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -6369,7 +6396,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -6379,7 +6406,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -6389,7 +6416,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -6399,7 +6426,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -6431,15 +6458,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -6459,7 +6486,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6477,7 +6504,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -6489,7 +6516,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>45078</v>
       </c>
@@ -6505,7 +6532,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>45079</v>
       </c>
@@ -6521,7 +6548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>45080</v>
       </c>
@@ -6537,7 +6564,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>45081</v>
       </c>
@@ -6553,7 +6580,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45092</v>
       </c>
@@ -6569,7 +6596,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45093</v>
       </c>
@@ -6585,7 +6612,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45094</v>
       </c>
@@ -6601,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45095</v>
       </c>
@@ -6617,7 +6644,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45107</v>
       </c>
@@ -6633,7 +6660,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -6643,7 +6670,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -6653,7 +6680,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -6663,7 +6690,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -6673,7 +6700,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -6683,7 +6710,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -6693,7 +6720,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -6703,7 +6730,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -6713,7 +6740,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -6723,7 +6750,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -6733,7 +6760,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -6743,7 +6770,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -6753,7 +6780,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -6785,15 +6812,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -6813,7 +6840,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6831,7 +6858,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -6843,7 +6870,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>45108</v>
       </c>
@@ -6859,7 +6886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>45109</v>
       </c>
@@ -6875,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>45110</v>
       </c>
@@ -6891,7 +6918,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>45111</v>
       </c>
@@ -6907,7 +6934,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45122</v>
       </c>
@@ -6923,7 +6950,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45123</v>
       </c>
@@ -6939,7 +6966,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45124</v>
       </c>
@@ -6955,7 +6982,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45125</v>
       </c>
@@ -6971,7 +6998,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45138</v>
       </c>
@@ -6987,7 +7014,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -6997,7 +7024,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -7007,7 +7034,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -7017,7 +7044,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -7027,7 +7054,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -7037,7 +7064,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -7047,7 +7074,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -7057,7 +7084,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -7067,7 +7094,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -7077,7 +7104,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -7087,7 +7114,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -7097,7 +7124,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -7107,7 +7134,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -7139,15 +7166,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="6"/>
+    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -7167,7 +7194,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -7185,7 +7212,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -7197,7 +7224,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>45139</v>
       </c>
@@ -7213,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>45140</v>
       </c>
@@ -7229,7 +7256,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>45141</v>
       </c>
@@ -7245,7 +7272,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>45142</v>
       </c>
@@ -7261,7 +7288,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>45153</v>
       </c>
@@ -7277,7 +7304,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>45154</v>
       </c>
@@ -7293,7 +7320,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>45155</v>
       </c>
@@ -7309,7 +7336,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>45156</v>
       </c>
@@ -7325,7 +7352,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>45169</v>
       </c>
@@ -7341,7 +7368,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -7351,7 +7378,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -7361,7 +7388,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -7371,7 +7398,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -7381,7 +7408,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -7391,7 +7418,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -7401,7 +7428,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -7411,7 +7438,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -7421,7 +7448,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -7431,7 +7458,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -7441,7 +7468,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -7451,7 +7478,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -7461,7 +7488,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>

--- a/MyBudgetTemplate.xlsx
+++ b/MyBudgetTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a81f2feb7c8e062/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="866" documentId="8_{6D5D6BAE-B148-4818-9C26-4C69CEB77ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9A9BB71-B6B7-4B48-BBA4-464D361B13A4}"/>
+  <xr:revisionPtr revIDLastSave="869" documentId="8_{6D5D6BAE-B148-4818-9C26-4C69CEB77ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D01CFA8-8DBF-431B-ADFA-EF8C17F3B2B4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{645D2AD4-9CFA-4C71-9DAA-1D9E8E3A6B2D}"/>
   </bookViews>
@@ -254,7 +254,7 @@
     <t>b. Select the row to insert to, right click and Insert cut cells.</t>
   </si>
   <si>
-    <t>c. Re-copy the balance (D3) formula down to force all rows to recalculate.</t>
+    <t>c. Re-copy the balance (E3) formula down to force all rows to recalculate.</t>
   </si>
   <si>
     <t>5. Formula references:</t>
@@ -304,7 +304,8 @@
 3. If running balances are not matching your checking accounts (and COH) total balances down to cents, make sure to update your debit or credit amounts to be accurate down to cents.
 4. Note that all incomes (including bonuses, commissions, salaries, wages, etc.) are credits.
 5. Note that all expenses (inluding withdrawals, transfers to savings or investments, payments, etc.) are debits.
-6. It is not recommended to use this tool to (also) keep track of your savings and investment accounts.</t>
+6. It is not recommended to use this tool to (also) keep track of your savings and investment accounts.
+7. Use the Adjustment row to debit or credit into the balance any mismatching amount or fund to start the month. Over time, you should not find much use for it.</t>
   </si>
   <si>
     <t>Rent</t>
@@ -377,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1414,6 +1415,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1423477903"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1471,6 +1473,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1353939183"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2154,10 +2157,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2458,22 +2457,22 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="7" customWidth="1"/>
-    <col min="3" max="4" width="13.54296875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="8.7265625" style="6"/>
-    <col min="11" max="11" width="35.54296875" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="8.7109375" style="6"/>
+    <col min="11" max="11" width="35.5703125" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2490,7 +2489,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2514,7 +2513,7 @@
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -2533,7 +2532,7 @@
       <c r="J3" s="33"/>
       <c r="K3" s="33"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4" s="5"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
@@ -2550,7 +2549,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
@@ -2567,7 +2566,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="14.45" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
@@ -2583,7 +2582,7 @@
       <c r="J6" s="34"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.45" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
@@ -2599,7 +2598,7 @@
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
     </row>
-    <row r="8" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="14.45" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -2615,7 +2614,7 @@
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" s="5"/>
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
@@ -2632,7 +2631,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.45" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
@@ -2648,7 +2647,7 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
     </row>
-    <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="14.45" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
@@ -2664,7 +2663,7 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
     </row>
-    <row r="12" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="14.45" customHeight="1">
       <c r="A12" s="5"/>
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
@@ -2680,7 +2679,7 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="15" thickBot="1">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -2690,7 +2689,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -2707,7 +2706,7 @@
       <c r="J14" s="25"/>
       <c r="K14" s="26"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -2722,7 +2721,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="29"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -2737,7 +2736,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="29"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2752,7 +2751,7 @@
       <c r="J17" s="28"/>
       <c r="K17" s="29"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2767,7 +2766,7 @@
       <c r="J18" s="28"/>
       <c r="K18" s="29"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -2782,7 +2781,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="29"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -2797,7 +2796,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="29"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -2812,7 +2811,7 @@
       <c r="J21" s="28"/>
       <c r="K21" s="29"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -2827,7 +2826,7 @@
       <c r="J22" s="28"/>
       <c r="K22" s="29"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -2842,7 +2841,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="29"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -2857,7 +2856,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="29"/>
     </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="15" thickBot="1">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -2872,7 +2871,7 @@
       <c r="J25" s="31"/>
       <c r="K25" s="32"/>
     </row>
-    <row r="27" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" ht="14.45" customHeight="1">
       <c r="A27" s="23" t="s">
         <v>19</v>
       </c>
@@ -2887,7 +2886,7 @@
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" s="23"/>
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
@@ -2900,7 +2899,7 @@
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" s="23"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
@@ -2913,7 +2912,7 @@
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -2926,7 +2925,7 @@
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" s="23"/>
       <c r="B31" s="23"/>
       <c r="C31" s="23"/>
@@ -2939,7 +2938,7 @@
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" s="23"/>
       <c r="B32" s="23"/>
       <c r="C32" s="23"/>
@@ -2952,7 +2951,7 @@
       <c r="J32" s="23"/>
       <c r="K32" s="23"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -2965,7 +2964,7 @@
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" s="23"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -3014,15 +3013,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -3072,7 +3071,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>45170</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>45171</v>
       </c>
@@ -3104,7 +3103,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>45172</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>45173</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45184</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45185</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45186</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45187</v>
       </c>
@@ -3200,7 +3199,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45199</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -3226,7 +3225,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -3236,7 +3235,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -3246,7 +3245,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -3256,7 +3255,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -3266,7 +3265,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -3276,7 +3275,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -3286,7 +3285,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -3296,7 +3295,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -3306,7 +3305,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -3316,7 +3315,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -3326,7 +3325,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -3336,7 +3335,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -3368,15 +3367,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3414,7 +3413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -3426,7 +3425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>45200</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>45201</v>
       </c>
@@ -3458,7 +3457,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>45202</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>45203</v>
       </c>
@@ -3490,7 +3489,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45214</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45215</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45216</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45217</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45230</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -3580,7 +3579,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -3590,7 +3589,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -3600,7 +3599,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -3610,7 +3609,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -3620,7 +3619,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -3630,7 +3629,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -3640,7 +3639,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -3650,7 +3649,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -3660,7 +3659,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -3670,7 +3669,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -3680,7 +3679,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -3690,7 +3689,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -3722,15 +3721,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3748,7 +3747,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3766,7 +3765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -3778,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>45231</v>
       </c>
@@ -3794,7 +3793,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>45232</v>
       </c>
@@ -3810,7 +3809,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>45233</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>45234</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45245</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45246</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45247</v>
       </c>
@@ -3890,7 +3889,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45248</v>
       </c>
@@ -3906,7 +3905,7 @@
         <v>-1100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45260</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -3932,7 +3931,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -3942,7 +3941,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -3952,7 +3951,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -3962,7 +3961,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -3972,7 +3971,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -3982,7 +3981,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -3992,7 +3991,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -4002,7 +4001,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -4012,7 +4011,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -4022,7 +4021,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -4032,7 +4031,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -4042,7 +4041,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -4074,15 +4073,15 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4120,7 +4119,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -4132,7 +4131,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>45261</v>
       </c>
@@ -4148,7 +4147,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>45262</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>45263</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>45264</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>-900</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45275</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45276</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45277</v>
       </c>
@@ -4244,7 +4243,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45278</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>-1200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45291</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5">
         <v>45291</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -4302,7 +4301,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -4312,7 +4311,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -4322,7 +4321,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -4332,7 +4331,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -4342,7 +4341,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -4352,7 +4351,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -4362,7 +4361,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -4372,7 +4371,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -4382,7 +4381,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -4392,7 +4391,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -4402,7 +4401,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -4432,14 +4431,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="14" t="s">
         <v>28</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" s="15" t="s">
         <v>29</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" s="15" t="s">
         <v>30</v>
       </c>
@@ -4487,7 +4486,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4">
       <c r="A4" s="15" t="s">
         <v>31</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4">
       <c r="A5" s="15" t="s">
         <v>32</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
       <c r="A6" s="15" t="s">
         <v>33</v>
       </c>
@@ -4538,7 +4537,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
         <v>34</v>
       </c>
@@ -4555,7 +4554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
         <v>35</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" s="15" t="s">
         <v>36</v>
       </c>
@@ -4589,7 +4588,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
         <v>37</v>
       </c>
@@ -4606,7 +4605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4">
       <c r="A11" s="15" t="s">
         <v>38</v>
       </c>
@@ -4623,7 +4622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" s="15" t="s">
         <v>40</v>
       </c>
@@ -4689,15 +4688,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -4733,7 +4732,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -4745,7 +4744,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>44927</v>
       </c>
@@ -4761,7 +4760,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>44928</v>
       </c>
@@ -4777,7 +4776,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>44929</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>44930</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>44941</v>
       </c>
@@ -4825,7 +4824,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>44942</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>44943</v>
       </c>
@@ -4857,7 +4856,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>44944</v>
       </c>
@@ -4873,7 +4872,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>44957</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -4899,7 +4898,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -4909,7 +4908,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -4919,7 +4918,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -4929,7 +4928,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -4939,7 +4938,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -4949,7 +4948,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -4959,7 +4958,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -4969,7 +4968,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -4979,7 +4978,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -4989,7 +4988,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -4999,7 +4998,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -5009,7 +5008,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -5042,15 +5041,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5070,7 +5069,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5088,7 +5087,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -5100,7 +5099,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>44958</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>44959</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>44960</v>
       </c>
@@ -5148,7 +5147,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>44961</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>44972</v>
       </c>
@@ -5180,7 +5179,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>44973</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>44974</v>
       </c>
@@ -5212,7 +5211,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>44975</v>
       </c>
@@ -5228,7 +5227,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>44985</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -5254,7 +5253,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -5264,7 +5263,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -5274,7 +5273,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -5284,7 +5283,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -5294,7 +5293,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -5304,7 +5303,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -5314,7 +5313,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -5324,7 +5323,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -5334,7 +5333,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -5344,7 +5343,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -5354,7 +5353,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -5364,7 +5363,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -5396,15 +5395,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5442,7 +5441,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -5454,7 +5453,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>44986</v>
       </c>
@@ -5470,7 +5469,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>44987</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>44988</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>44989</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45000</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45001</v>
       </c>
@@ -5550,7 +5549,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45002</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45003</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45016</v>
       </c>
@@ -5598,7 +5597,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -5608,7 +5607,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -5618,7 +5617,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -5628,7 +5627,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -5638,7 +5637,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -5648,7 +5647,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -5658,7 +5657,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -5668,7 +5667,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -5678,7 +5677,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -5688,7 +5687,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -5698,7 +5697,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -5708,7 +5707,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -5718,7 +5717,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -5750,15 +5749,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -5808,7 +5807,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>45017</v>
       </c>
@@ -5824,7 +5823,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>45018</v>
       </c>
@@ -5840,7 +5839,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>45019</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>45020</v>
       </c>
@@ -5872,7 +5871,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45031</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45032</v>
       </c>
@@ -5904,7 +5903,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45033</v>
       </c>
@@ -5920,7 +5919,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45034</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45046</v>
       </c>
@@ -5952,7 +5951,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -5962,7 +5961,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -5972,7 +5971,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -5982,7 +5981,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -5992,7 +5991,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -6002,7 +6001,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -6012,7 +6011,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -6022,7 +6021,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -6032,7 +6031,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -6042,7 +6041,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -6052,7 +6051,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -6062,7 +6061,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -6072,7 +6071,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -6104,15 +6103,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -6132,7 +6131,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6150,7 +6149,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -6162,7 +6161,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>45047</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>45048</v>
       </c>
@@ -6194,7 +6193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>45049</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>45050</v>
       </c>
@@ -6226,7 +6225,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45061</v>
       </c>
@@ -6242,7 +6241,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45062</v>
       </c>
@@ -6258,7 +6257,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45063</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45064</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45077</v>
       </c>
@@ -6306,7 +6305,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -6316,7 +6315,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -6326,7 +6325,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -6336,7 +6335,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -6346,7 +6345,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -6356,7 +6355,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -6366,7 +6365,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -6376,7 +6375,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -6386,7 +6385,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -6396,7 +6395,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -6406,7 +6405,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -6416,7 +6415,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -6426,7 +6425,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -6458,15 +6457,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -6486,7 +6485,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -6516,7 +6515,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>45078</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>45079</v>
       </c>
@@ -6548,7 +6547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>45080</v>
       </c>
@@ -6564,7 +6563,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>45081</v>
       </c>
@@ -6580,7 +6579,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45092</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45093</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45094</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45095</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>-600</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45107</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -6670,7 +6669,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -6680,7 +6679,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -6690,7 +6689,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -6700,7 +6699,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -6710,7 +6709,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -6720,7 +6719,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -6730,7 +6729,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -6740,7 +6739,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -6750,7 +6749,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -6760,7 +6759,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -6770,7 +6769,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -6780,7 +6779,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -6812,15 +6811,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -6858,7 +6857,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -6870,7 +6869,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>45108</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>45109</v>
       </c>
@@ -6902,7 +6901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>45110</v>
       </c>
@@ -6918,7 +6917,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>45111</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45122</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45123</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45124</v>
       </c>
@@ -6982,7 +6981,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45125</v>
       </c>
@@ -6998,7 +6997,7 @@
         <v>-700</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45138</v>
       </c>
@@ -7014,7 +7013,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -7024,7 +7023,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -7034,7 +7033,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -7044,7 +7043,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -7054,7 +7053,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -7064,7 +7063,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -7074,7 +7073,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -7084,7 +7083,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -7094,7 +7093,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -7104,7 +7103,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -7114,7 +7113,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -7124,7 +7123,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -7134,7 +7133,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
@@ -7166,15 +7165,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="13.54296875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="10.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18.95" thickBot="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -7194,7 +7193,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="15" thickTop="1">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -7212,7 +7211,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="18"/>
       <c r="B3" s="19" t="s">
         <v>7</v>
@@ -7224,7 +7223,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>45139</v>
       </c>
@@ -7240,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>45140</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>45141</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>45142</v>
       </c>
@@ -7288,7 +7287,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>45153</v>
       </c>
@@ -7304,7 +7303,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>45154</v>
       </c>
@@ -7320,7 +7319,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="5">
         <v>45155</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="5">
         <v>45156</v>
       </c>
@@ -7352,7 +7351,7 @@
         <v>-800</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="5">
         <v>45169</v>
       </c>
@@ -7368,7 +7367,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
@@ -7378,7 +7377,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -7388,7 +7387,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
@@ -7398,7 +7397,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
@@ -7408,7 +7407,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -7418,7 +7417,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -7428,7 +7427,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
@@ -7438,7 +7437,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="3"/>
       <c r="C20" s="4"/>
@@ -7448,7 +7447,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="3"/>
       <c r="C21" s="4"/>
@@ -7458,7 +7457,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="3"/>
       <c r="C22" s="4"/>
@@ -7468,7 +7467,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="3"/>
       <c r="C23" s="4"/>
@@ -7478,7 +7477,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
@@ -7488,7 +7487,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
